--- a/RiskAnalysis.xlsx
+++ b/RiskAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StartupActivities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eBikeMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>Risk Category</t>
   </si>
   <si>
-    <t>Risk Level</t>
-  </si>
-  <si>
     <t>Why It Matters</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>Asset Theft &amp; Damage</t>
   </si>
   <si>
-    <t>🔴 High</t>
-  </si>
-  <si>
     <t>E-bikes are high-value assets; owner trust is critical</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Marketplace Cold-Start</t>
   </si>
   <si>
-    <t>🟠 Medium-High</t>
-  </si>
-  <si>
     <t>Two-sided marketplace adoption risk</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Payment Fraud &amp; Chargebacks</t>
   </si>
   <si>
-    <t>🟠 Medium</t>
-  </si>
-  <si>
     <t>Financial leakage threatens unit economics</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Battery Abuse &amp; Maintenance</t>
   </si>
   <si>
-    <t>🟡 Medium-Low</t>
-  </si>
-  <si>
     <t>Owner long-term cost concerns</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>Scalability (Post-PMF)</t>
   </si>
   <si>
-    <t>🟢 Low (Now)</t>
-  </si>
-  <si>
     <t>Only relevant after traction</t>
   </si>
   <si>
@@ -149,20 +131,38 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Mitigation Complexity</t>
-  </si>
-  <si>
     <t>Final Score</t>
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Medium-High</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Medium-Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Risk Level (Current)</t>
+  </si>
+  <si>
+    <t>Complexity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,16 +193,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,25 +230,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,349 +552,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.46484375" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <f>IF(D2=0,0,B2*C2/D2)</f>
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(E3=0,0,C3*D3/E3)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F12" si="0">IF(E4=0,0,C4*D4/E4)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+    </row>
+    <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E11" si="0">IF(D3=0,0,B3*C3/D3)</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>IF(E7=0,0,C7*D7/E7)</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <f>IF(D6=0,0,B6*C6/D6)</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G9" s="6">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
+    </row>
+    <row r="10" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
+      <c r="H12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/RiskAnalysis.xlsx
+++ b/RiskAnalysis.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -612,11 +612,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f>IF(E3=0,0,C3*D3/E3)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
